--- a/Producto/Web/Casos de prueba/1.xlsx
+++ b/Producto/Web/Casos de prueba/1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DatosGenerales" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Pasos" sheetId="2" r:id="rId3"/>
     <sheet name="Control de cambios" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -61,36 +61,6 @@
     <t>&lt;Playa1&gt; no existe en la base de datos y esta activa</t>
   </si>
   <si>
-    <t>&lt;PlayaNombre1&gt; es un nombre valido de playa de estacionamiento</t>
-  </si>
-  <si>
-    <t>&lt;Horario1&gt; con &lt;Dias1&gt; como dias, &lt;HorarioDesde1&gt; como horario desde y &lt;HorarioHasta1&gt; como horario hasta es un horario de &lt;Playa1&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;Precio1&gt; con &lt;TipoVehiculo1&gt; como tipo de vehiculo, &lt;TipoHorario1&gt; como tipo de horario, &lt;Dias1&gt; como dias y &lt;ValorPrecio1&gt; como precio es un precio de &lt;Playa1&gt;</t>
-  </si>
-  <si>
-    <t>&lt;NombrePlaya2&gt; es un nombre válido para un playa de estcionamiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;Telefono1&gt; es un telefono valido de playa de estacionamiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;mail1&gt; es un mail válido de la playa de estacionamiento</t>
-  </si>
-  <si>
-    <t>&lt;tipoPlaya1&gt; es un tipo de playa de estacionamiento valido y existe en la base de datos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;TipoVehiculo1&gt; es un tipo de vehiculo que existe en la base de datos y &lt;capacidad1&gt; es un valor válido para una capacidad</t>
-  </si>
-  <si>
-    <t>&lt;Domicilio1&gt; con &lt;Provincia1&gt; existe en la base de datos, &lt;Departamento1&gt; existe en la base de datos y pertenece a la provincia &lt;Provincia1&gt;, &lt;Ciudad1&gt; existe en la base de datos y pertenece al departamento &lt;Departamento1&gt;, &lt;Calle1&gt; es una calle valida y &lt;Numero1&gt; es un valor valido para numero, es domicilio valido para una playa de estacionamiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;TipoVehiculo2&gt; es un tipo de vehiculo que existe en la base de datos y &lt;Capacidad2&gt; es un valor válido para una capacidad</t>
-  </si>
-  <si>
     <t>volver</t>
   </si>
   <si>
@@ -109,12 +79,6 @@
     <t>se cargan los componentes necesarios para registrar una playa de estacionamiento</t>
   </si>
   <si>
-    <t>Ingresar &lt;playaNombre1&gt; en el campo Nombre</t>
-  </si>
-  <si>
-    <t>Ingresar &lt;capacidad1&gt; en el campo capacidad</t>
-  </si>
-  <si>
     <t>Se muestra en el mapa el punto seleccionado</t>
   </si>
   <si>
@@ -127,51 +91,15 @@
     <t>&lt;Playa1&gt; no existe en la base de datos</t>
   </si>
   <si>
-    <t>Ingresar &lt;telefono1&gt; en el campo telefono</t>
-  </si>
-  <si>
-    <t>Ingresar &lt;mail1&gt; en el campo telefono</t>
-  </si>
-  <si>
-    <t>Seleccionar &lt;tipoDeplaya1&gt; enla lista desplegable</t>
-  </si>
-  <si>
-    <t>Seleccionar &lt;tipoDeVehiculo1&gt; enla lista desplegable</t>
-  </si>
-  <si>
-    <t>Seleccionar &lt;provincia1&gt; enla lista desplegable</t>
-  </si>
-  <si>
-    <t>Seleccionar &lt;departamento1&gt; enla lista desplegable</t>
-  </si>
-  <si>
-    <t>Seleccionar &lt;ciudad1&gt; enla lista desplegable</t>
-  </si>
-  <si>
-    <t>Seleccionar &lt;Dias1&gt; enla lista desplegable</t>
-  </si>
-  <si>
-    <t>Ingresar &lt;precio1&gt; en el campo precio</t>
-  </si>
-  <si>
     <t>Verificar que &lt;Playa1&gt; existe en la base de datos y los datos ingresados son validos.</t>
   </si>
   <si>
-    <t>Ingresar &lt;desde&gt; y &lt;hasta&gt; en los campos correspondientes</t>
-  </si>
-  <si>
     <t>Ingresar a la pestaña "Horarios"</t>
   </si>
   <si>
     <t>Ingresar a la pestaña "Precios"</t>
   </si>
   <si>
-    <t>Seleccionar &lt;tipoDeVehiculo1&gt; en la lista desplegable</t>
-  </si>
-  <si>
-    <t>Seleccionar &lt;tipoDeHorario1&gt; en la lista desplegable</t>
-  </si>
-  <si>
     <t>Versión</t>
   </si>
   <si>
@@ -191,13 +119,82 @@
   </si>
   <si>
     <t>creacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "999999" es un telefono valido de playa de estacionamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;CPA_TipoVehiculo2&gt; es un tipo de vehiculo que existe en la base de datos y "9" es un valor válido para una capacidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;CPA_TipoVehiculo1&gt; es un tipo de vehiculo que existe en la base de datos y "9" es un valor válido para una capacidad</t>
+  </si>
+  <si>
+    <t>&lt;CPA_TipoPlaya1&gt; es un tipo de playa de estacionamiento valido y existe en la base de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "CPA_mail@CPA_mail" es un mail válido de la playa de estacionamiento</t>
+  </si>
+  <si>
+    <t>"CPA_Playa2" es un nombre válido para una playa de estcionamiento</t>
+  </si>
+  <si>
+    <t>"CPA_Playa1" es un nombre valido de playa de estacionamiento</t>
+  </si>
+  <si>
+    <t>Ingresar "CPA_Playa1" en el campo Nombre</t>
+  </si>
+  <si>
+    <t>Ingresar "999999" en el campo telefono</t>
+  </si>
+  <si>
+    <t>Ingresar "CPA_mail@CPA_mail.com" en el campo telefono</t>
+  </si>
+  <si>
+    <t>Seleccionar &lt;CPA_TipoPlaya1&gt;  enla lista desplegable</t>
+  </si>
+  <si>
+    <t>Seleccionar &lt;CPA_TipoVehiculo1&gt; en la lista desplegable</t>
+  </si>
+  <si>
+    <t>Ingresar "9" en el campo capacidad</t>
+  </si>
+  <si>
+    <t>&lt;Domicilio1&gt;, conla provincia &lt;Córdoba&gt; existe en la base de datos,  el departamento &lt;Capital&gt; existe en la base de datos y pertenece a  &lt;Córdoba&gt;, la ciudad &lt;Córdoba&gt; existe en la base de datos y pertenece al &lt;Capital&gt;, &lt;Calle1&gt; con nombre "Colon" es una calle valida y "9" es un valor valido para numero; es domicilio valido para una playa de estacionamiento</t>
+  </si>
+  <si>
+    <t>Seleccionar &lt;Córdoba&gt; en la lista desplegable de provincias</t>
+  </si>
+  <si>
+    <t>Seleccionar &lt;Córdoba&gt; en la lista desplegable de ciudades</t>
+  </si>
+  <si>
+    <t>Seleccionar &lt;Capital&gt; en la lista desplegable</t>
+  </si>
+  <si>
+    <t>Seleccionar &lt;Lunes-Viernes&gt;  en la lista desplegable</t>
+  </si>
+  <si>
+    <t>Ingresar "10:00" en el campo Desde y "20:00" en el campo hasta</t>
+  </si>
+  <si>
+    <t>Seleccionar &lt;CPA_TipoHorario1&gt; en la lista desplegable</t>
+  </si>
+  <si>
+    <t>Ingresar "9" en el campo precio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;Precio1&gt; con &lt;CPA_TipoVehiculo1&gt; como tipo de vehiculo, &lt;CPA_TipoHorario1&gt; como tipo de horario, &lt;CPA_DiasDeAtencion1&gt; como dias y "9" como precio es un precio de &lt;Playa1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Horario1&gt; con &lt;CPA_DiasDeAtencion1&gt; como dias, "00:00" como horario desde y "23:59" hasta es un horario de &lt;Playa1&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,7 +454,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -492,7 +488,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -668,20 +663,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -689,7 +684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16.5" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -697,7 +692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -705,7 +700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="32.25" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -713,7 +708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -722,7 +717,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -730,7 +725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -748,20 +743,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -769,10 +764,10 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -780,84 +775,84 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="26.25" thickBot="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="26.25" thickBot="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="26.25" thickBot="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="26.25" thickBot="1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="39" thickBot="1">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="39" thickBot="1">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="102.75" thickBot="1">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="39" thickBot="1">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="51.75" thickBot="1">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="25.5">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -869,19 +864,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
     <col min="3" max="3" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -892,212 +889,212 @@
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="26.25" thickBot="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="26.25" thickBot="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="26.25" thickBot="1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="26.25" thickBot="1">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="26.25" thickBot="1">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="26.25" customHeight="1" thickBot="1">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="26.25" thickBot="1">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="26.25" thickBot="1">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="26.25" thickBot="1">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="26.25" thickBot="1">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="26.25" thickBot="1">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="26.25" thickBot="1">
       <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="26.25" thickBot="1">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="25.5">
       <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1109,14 +1106,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -1124,26 +1121,26 @@
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="38.25">
       <c r="A2" s="7" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B2" s="8">
         <v>41788</v>
@@ -1152,10 +1149,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Producto/Web/Casos de prueba/1.xlsx
+++ b/Producto/Web/Casos de prueba/1.xlsx
@@ -747,7 +747,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/Producto/Web/Casos de prueba/1.xlsx
+++ b/Producto/Web/Casos de prueba/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DatosGenerales" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -172,9 +172,6 @@
     <t>Seleccionar &lt;Capital&gt; en la lista desplegable</t>
   </si>
   <si>
-    <t>Seleccionar &lt;Lunes-Viernes&gt;  en la lista desplegable</t>
-  </si>
-  <si>
     <t>Ingresar "10:00" en el campo Desde y "20:00" en el campo hasta</t>
   </si>
   <si>
@@ -188,6 +185,12 @@
   </si>
   <si>
     <t>&lt;Horario1&gt; con &lt;CPA_DiasDeAtencion1&gt; como dias, "00:00" como horario desde y "23:59" hasta es un horario de &lt;Playa1&gt;</t>
+  </si>
+  <si>
+    <t>El usuario "superadmin" esta logueado y tiene permisos de superadministrador.</t>
+  </si>
+  <si>
+    <t>Seleccionar &lt;CPA_DiaAtencion1&gt;  en la lista desplegable</t>
   </si>
 </sst>
 </file>
@@ -255,7 +258,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -330,12 +333,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF4BACC6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF548DD4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -363,6 +377,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -744,11 +761,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -767,20 +782,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1">
+    <row r="2" spans="1:3" ht="26.25" thickBot="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="26.25" thickBot="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="26.25" thickBot="1">
@@ -788,7 +803,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="26.25" thickBot="1">
@@ -796,7 +811,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="26.25" thickBot="1">
@@ -804,15 +819,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="39" thickBot="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="26.25" thickBot="1">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" thickBot="1">
@@ -820,26 +835,26 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="102.75" thickBot="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="39" thickBot="1">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="39" thickBot="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="102.75" thickBot="1">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="51.75" thickBot="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="39" thickBot="1">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -847,11 +862,19 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="25.5">
+    <row r="12" spans="1:3" ht="51.75" thickBot="1">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="25.5">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -867,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1017,7 +1040,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C14" s="6"/>
     </row>
@@ -1026,7 +1049,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="6"/>
     </row>
@@ -1053,7 +1076,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="6"/>
     </row>
@@ -1071,7 +1094,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="6"/>
     </row>
